--- a/console/Networking/iaas网络与容器中文提取/vpcExcel/components/layer/layer.xlsx
+++ b/console/Networking/iaas网络与容器中文提取/vpcExcel/components/layer/layer.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\韩凯\2019.1\console;Networking;iaas网络与容器中文提取-0107-译文-提交\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\文件\工作-中译语通\2018年\12月\12月4日\VPC和子网国际化-by-JD\最终版\vpcExcel\components\layer\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="12450"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="20730" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
@@ -257,18 +257,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>创建后不可修改 &amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>layer_i18nKey_11</t>
     </r>
   </si>
@@ -425,18 +413,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>京东云提供的IPv6 CIDR</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>layer_i18nKey_18</t>
     </r>
   </si>
@@ -449,18 +425,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>京东云为您提供固定大小的（</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>layer_i18nKey_19</t>
     </r>
   </si>
@@ -617,18 +581,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>'名称不能为空</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>layer_i18nKey_32</t>
     </r>
   </si>
@@ -713,18 +665,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>All route tables, network ACL and Security Groups in the VPC will be deleted when such VPC is deleted</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Confirm to delete the VPC</t>
     </r>
   </si>
@@ -785,30 +725,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Upon creation, it cannot be modified &amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Create and No Preset</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>VPC</t>
     </r>
   </si>
@@ -821,18 +737,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>The VPC without preset IPv4 CIDR is recommended to the user having a deep understanding of the network.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>No IPv6 CIDR</t>
     </r>
   </si>
@@ -845,30 +749,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>IPv6 CIDR Provided by JD Cloud</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>JD Cloud provides ( of fixed size</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>You are not allowed to select the IPv6 CIDR range</t>
     </r>
   </si>
@@ -893,18 +773,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Description only supports Chinese, numbers, upper case and lower case letters and English underline “_”, with at most 256 characters</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>'Description cannot exceed 256 characters'</t>
     </r>
   </si>
@@ -917,55 +785,240 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>'Must provide a name</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>'Length cannot exceed 32 characters</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Name only supports Chinese, numbers, upper case and lower case letters, English underline “_” and line-through “-”</t>
-    </r>
-  </si>
-  <si>
-    <t>The name cannot be null; it only supports Chinese, numbers, upper case and lower case letters, English underline “_” and line-through “-”, with at most 32 characters'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Create and preset</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Create and preset CIDR VPC</t>
+    <t>All Route Tables, network ACLs and Security Groups in the VPC will be deleted when such VPC is deleted</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The description only supports Chinese, numbers, upper case and lower case letters and English underline “_”, with at most 256 characters'</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>创建后不可修改</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>After creation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, it cannot be modified &amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Description only supports </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Chinese characters</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, numbers, upper case and lower case letters and English underline “_”, with at most 256 characters</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The name cannot be null; it only supports </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Chinese characters</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, numbers, upper case and lower case letters, English underline “_” and line-through “-”, with at most 32 characters'</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>The description only supports</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Chinese characters</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, numbers, upper case and lower case letters and English underline “_”, with at most 256 characters'</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Name only supports</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Chinese characters</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, numbers, upper case and lower case letters, English underline “_” and line-through “-”</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name must be provided</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>名称不能为空</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东云为您提供固定大小的（</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>京东云提供的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IPv6 CIDR</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPv6 CIDR Provided by JD Cloud</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JD Cloud provides you with fixed size(</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The VPC without preset CIDR is recommended to the user having a deep understanding of the network,the IP range can extend as needed.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create VPC with preset CIDR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create VPC without preset CIDR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -975,6 +1028,29 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1001,12 +1077,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1348,19 +1440,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="38.33203125" customWidth="1"/>
     <col min="3" max="3" width="48.5546875" customWidth="1"/>
+    <col min="4" max="4" width="30.109375" customWidth="1"/>
+    <col min="6" max="6" width="20" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1368,10 +1462,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1379,10 +1473,10 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1390,21 +1484,23 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1412,10 +1508,10 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1423,10 +1519,10 @@
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1434,10 +1530,10 @@
         <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -1445,10 +1541,10 @@
         <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -1456,212 +1552,235 @@
         <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="1" t="s">
+    <row r="27" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="45" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="45" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:B27" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:B9 A11:B16 A10 A26:B27 A25 A19:B24 A18 A17" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>